--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2991.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2991.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.185198547635547</v>
+        <v>2.024779796600342</v>
       </c>
       <c r="B1">
-        <v>2.479160252779681</v>
+        <v>2.196696519851685</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.207910060882568</v>
       </c>
       <c r="D1">
-        <v>2.276873624769169</v>
+        <v>2.748614311218262</v>
       </c>
       <c r="E1">
-        <v>1.194724980863248</v>
+        <v>3.499426126480103</v>
       </c>
     </row>
   </sheetData>
